--- a/additional covariates.xlsx
+++ b/additional covariates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Documents\Thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{938CF6A9-CCF0-4B9E-922A-5284636F0D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC6780A-F04A-46EB-B7AF-E428BAA106D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DACD6F0F-4031-47A0-9352-92FB1E436268}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{DACD6F0F-4031-47A0-9352-92FB1E436268}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>BE</t>
   </si>
@@ -89,9 +89,6 @@
     <t>CH</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -105,6 +102,15 @@
   </si>
   <si>
     <t>RD pc ppp</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser//product/view/EDAT_LFSE_03</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -112,15 +118,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="168" formatCode="#,##0.##########"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +157,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -191,25 +205,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -221,14 +236,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{44AE3F53-4FD2-48C1-8D60-237D5ABE45DD}"/>
   </cellStyles>
@@ -542,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0401F00-0E0D-4BCB-9EAB-0FB9C7F07C53}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,24 +571,24 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -588,378 +605,381 @@
         <v>2.2811406339999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="8">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C3" s="9">
-        <v>19.3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>517.7864793</v>
+        <v>36.9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1064.846755</v>
       </c>
       <c r="E3" s="2">
-        <v>1.7696714280000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.3700163249999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="8">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C4" s="9">
-        <v>28.2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>551.32218929999999</v>
+        <v>37.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1226.341154</v>
       </c>
       <c r="E4" s="2">
-        <v>2.1248057980000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.523377107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="8">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C5" s="9">
-        <v>37.6</v>
+        <v>40.6</v>
       </c>
       <c r="D5" s="3">
-        <v>1388.991908</v>
+        <v>1502.4741140000001</v>
       </c>
       <c r="E5" s="2">
-        <v>3.398323692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.8601752239999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8">
         <v>2012</v>
       </c>
       <c r="C6" s="9">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="D6" s="1">
-        <v>839.25189590000002</v>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1708.66858</v>
       </c>
       <c r="E6" s="2">
-        <v>2.2270658230000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.874565493</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7" s="8">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C7" s="9">
-        <v>32.6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1249.4726209999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.8816555510000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C8" s="9">
-        <v>30.7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>291.8264795</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.254226396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C9" s="9">
-        <v>34.1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>722.48230390000003</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.556749419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43.7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8">
         <v>2012</v>
       </c>
       <c r="C10" s="9">
-        <v>22.1</v>
+        <v>19.3</v>
       </c>
       <c r="D10" s="1">
-        <v>220.6145569</v>
+        <v>517.7864793</v>
       </c>
       <c r="E10" s="2">
-        <v>0.89304264300000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.7696714280000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="8">
-        <v>2012</v>
-      </c>
-      <c r="C11" s="10">
-        <v>33</v>
+        <v>2014</v>
+      </c>
+      <c r="C11" s="9">
+        <v>21.5</v>
       </c>
       <c r="D11" s="1">
-        <v>905.86031779999996</v>
+        <v>636.54005010000003</v>
       </c>
       <c r="E11" s="2">
-        <v>1.9162737489999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.958330634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B12" s="8">
-        <v>2012</v>
-      </c>
-      <c r="C12" s="9">
-        <v>24.5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1059.227034</v>
+        <v>2016</v>
+      </c>
+      <c r="C12" s="10">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>602.90184160000001</v>
       </c>
       <c r="E12" s="2">
-        <v>1.610532329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.6700287309999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13" s="8">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C13" s="9">
-        <v>18.5</v>
+        <v>24.3</v>
       </c>
       <c r="D13" s="1">
-        <v>207.37132070000001</v>
+        <v>781.60415990000001</v>
       </c>
       <c r="E13" s="2">
-        <v>0.88997041700000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.8990624330000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14" s="8">
         <v>2012</v>
       </c>
       <c r="C14" s="9">
-        <v>26.4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>364.47778899999997</v>
+        <v>28.2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>551.32218929999999</v>
       </c>
       <c r="E14" s="2">
-        <v>1.3786059930000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.1248057980000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B15" s="8">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C15" s="9">
-        <v>39.700000000000003</v>
+        <v>27.1</v>
       </c>
       <c r="D15" s="1">
-        <v>743.81521439999995</v>
+        <v>413.59190339999998</v>
       </c>
       <c r="E15" s="2">
-        <v>2.5606130089999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.4302312829999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B16" s="8">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C16" s="9">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="D16" s="3">
-        <v>412.03006800000003</v>
+        <v>28.3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>389.20459929999998</v>
       </c>
       <c r="E16" s="2">
-        <v>1.298763927</v>
+        <v>1.243061988</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17" s="8">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C17" s="9">
-        <v>38.6</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1467.580672</v>
+        <v>29.1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>514.48461529999997</v>
       </c>
       <c r="E17" s="2">
-        <v>3.2302490509999999</v>
+        <v>1.4099858249999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B18" s="8">
         <v>2012</v>
       </c>
       <c r="C18" s="9">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1708.66858</v>
+        <v>37.6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1388.991908</v>
       </c>
       <c r="E18" s="2">
-        <v>2.874565493</v>
+        <v>3.398323692</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B19" s="8">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C19" s="9">
-        <v>38.6</v>
-      </c>
-      <c r="D19" s="1">
-        <v>604.19373389999998</v>
+        <v>37.6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1314.080408</v>
       </c>
       <c r="E19" s="5">
-        <v>1.57631063</v>
+        <v>3.14750818</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B20" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C20" s="9">
-        <v>36.9</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1064.846755</v>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1224.2033799999999</v>
       </c>
       <c r="E20" s="2">
-        <v>2.3700163249999999</v>
+        <v>2.724418209</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" s="8">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C21" s="9">
-        <v>21.5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>636.54005010000003</v>
+        <v>39.1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1366.979417</v>
       </c>
       <c r="E21" s="2">
-        <v>1.958330634</v>
+        <v>2.7574937249999998</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" s="8">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C22" s="9">
-        <v>27.1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>413.59190339999998</v>
+        <v>32.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1249.4726209999999</v>
       </c>
       <c r="E22" s="2">
-        <v>1.4302312829999999</v>
+        <v>2.8816555510000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" s="8">
         <v>2014</v>
       </c>
       <c r="C23" s="9">
-        <v>37.6</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D23" s="3">
-        <v>1314.080408</v>
-      </c>
-      <c r="E23" s="5">
-        <v>3.14750818</v>
+        <v>1352.9096649999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.8778404950000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C24" s="9">
-        <v>43.3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>913.64534179999998</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2.27591667</v>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1487.2336700000001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.9403891870000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,335 +987,339 @@
         <v>5</v>
       </c>
       <c r="B25" s="8">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C25" s="9">
-        <v>34.700000000000003</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="D25" s="3">
-        <v>1352.9096649999999</v>
+        <v>1716.645178</v>
       </c>
       <c r="E25" s="2">
-        <v>2.8778404950000001</v>
+        <v>3.110105484</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B26" s="8">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C26" s="9">
-        <v>33.200000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>345.44828410000002</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1.3446000300000001</v>
+        <v>743.81521439999995</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.5606130089999999</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B27" s="8">
         <v>2014</v>
       </c>
       <c r="C27" s="9">
-        <v>36.700000000000003</v>
+        <v>41.8</v>
       </c>
       <c r="D27" s="1">
-        <v>778.67863990000001</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1.520976111</v>
+        <v>730.2881036</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.3654796</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B28" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C28" s="9">
-        <v>23.4</v>
+        <v>43.1</v>
       </c>
       <c r="D28" s="1">
-        <v>290.33077309999999</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1.030107976</v>
+        <v>681.44758060000004</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2.0076370400000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B29" s="8">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C29" s="9">
-        <v>34.4</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1069.984807</v>
+        <v>44.5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>759.07605569999998</v>
       </c>
       <c r="E29" s="2">
-        <v>2.1732979929999998</v>
+        <v>1.9459348729999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30" s="8">
-        <v>2014</v>
-      </c>
-      <c r="C30" s="10">
-        <v>27</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1130.1513990000001</v>
+        <v>2012</v>
+      </c>
+      <c r="C30" s="9">
+        <v>30.7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>291.8264795</v>
       </c>
       <c r="E30" s="2">
-        <v>1.703691217</v>
+        <v>1.254226396</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B31" s="8">
         <v>2014</v>
       </c>
       <c r="C31" s="9">
-        <v>21.7</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D31" s="1">
-        <v>237.74423970000001</v>
+        <v>345.44828410000002</v>
       </c>
       <c r="E31" s="5">
-        <v>0.95076187000000001</v>
+        <v>1.3446000300000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B32" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C32" s="9">
-        <v>28.6</v>
-      </c>
-      <c r="D32" s="4">
-        <v>370.75196999999997</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1.2899169539999999</v>
+        <v>34.6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>329.67857309999999</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.17987058</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B33" s="8">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C33" s="9">
-        <v>41.8</v>
+        <v>36.9</v>
       </c>
       <c r="D33" s="1">
-        <v>730.2881036</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2.3654796</v>
+        <v>481.10587370000002</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.5077594759999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B34" s="8">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C34" s="9">
-        <v>38.700000000000003</v>
+        <v>22.1</v>
       </c>
       <c r="D34" s="1">
-        <v>416.66485729999999</v>
+        <v>220.6145569</v>
       </c>
       <c r="E34" s="2">
-        <v>1.241589877</v>
+        <v>0.89304264300000002</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B35" s="8">
         <v>2014</v>
       </c>
       <c r="C35" s="9">
-        <v>42.3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1463.5919289999999</v>
-      </c>
-      <c r="E35" s="5">
-        <v>3.1018375900000001</v>
+        <v>23.4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>290.33077309999999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.030107976</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B36" s="8">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C36" s="9">
-        <v>38.4</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+        <v>23.7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>260.5165002</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.84240976999999995</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B37" s="8">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C37" s="9">
-        <v>40.6</v>
+        <v>25.1</v>
       </c>
       <c r="D37" s="1">
-        <v>934.97723289999999</v>
+        <v>340.71094060000001</v>
       </c>
       <c r="E37" s="2">
-        <v>2.2644990649999999</v>
+        <v>0.93662283599999996</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B38" s="8">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C38" s="9">
-        <v>37.5</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1226.341154</v>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D38" s="1">
+        <v>839.25189590000002</v>
       </c>
       <c r="E38" s="2">
-        <v>2.523377107</v>
+        <v>2.2270658230000002</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B39" s="8">
-        <v>2016</v>
-      </c>
-      <c r="C39" s="10">
-        <v>23</v>
+        <v>2014</v>
+      </c>
+      <c r="C39" s="9">
+        <v>43.3</v>
       </c>
       <c r="D39" s="1">
-        <v>602.90184160000001</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1.6700287309999999</v>
+        <v>913.64534179999998</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2.27591667</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" s="8">
         <v>2016</v>
       </c>
       <c r="C40" s="9">
-        <v>28.3</v>
+        <v>45.1</v>
       </c>
       <c r="D40" s="1">
-        <v>389.20459929999998</v>
+        <v>952.42360829999996</v>
       </c>
       <c r="E40" s="2">
-        <v>1.243061988</v>
+        <v>2.2223838909999998</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C41" s="9">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1224.2033799999999</v>
+        <v>46.9</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1017.864942</v>
       </c>
       <c r="E41" s="2">
-        <v>2.724418209</v>
+        <v>2.1966601020000001</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B42" s="8">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C42" s="9">
-        <v>45.1</v>
+        <v>34.1</v>
       </c>
       <c r="D42" s="1">
-        <v>952.42360829999996</v>
+        <v>722.48230390000003</v>
       </c>
       <c r="E42" s="2">
-        <v>2.2223838909999998</v>
+        <v>1.556749419</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B43" s="8">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C43" s="9">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1487.2336700000001</v>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D43" s="1">
+        <v>778.67863990000001</v>
       </c>
       <c r="E43" s="2">
-        <v>2.9403891870000001</v>
+        <v>1.520976111</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B44" s="8">
         <v>2016</v>
       </c>
       <c r="C44" s="9">
-        <v>34.6</v>
-      </c>
-      <c r="D44" s="1">
-        <v>329.67857309999999</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1.17987058</v>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D44" s="3">
+        <v>841.73891700000001</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.1750693160000001</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1303,33 +1327,33 @@
         <v>7</v>
       </c>
       <c r="B45" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C45" s="9">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="D45" s="3">
-        <v>841.73891700000001</v>
+        <v>41.7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>990.06749509999997</v>
       </c>
       <c r="E45" s="2">
-        <v>1.1750693160000001</v>
+        <v>1.167197466</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46" s="8">
-        <v>2016</v>
-      </c>
-      <c r="C46" s="9">
-        <v>23.7</v>
+        <v>2012</v>
+      </c>
+      <c r="C46" s="10">
+        <v>33</v>
       </c>
       <c r="D46" s="1">
-        <v>260.5165002</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0.84240976999999995</v>
+        <v>905.86031779999996</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.9162737489999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,101 +1361,101 @@
         <v>9</v>
       </c>
       <c r="B47" s="8">
-        <v>2016</v>
-      </c>
-      <c r="C47" s="10">
-        <v>36</v>
+        <v>2014</v>
+      </c>
+      <c r="C47" s="9">
+        <v>34.4</v>
       </c>
       <c r="D47" s="3">
-        <v>1124.6469890000001</v>
+        <v>1069.984807</v>
       </c>
       <c r="E47" s="2">
-        <v>2.1508123960000001</v>
+        <v>2.1732979929999998</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" s="8">
         <v>2016</v>
       </c>
-      <c r="C48" s="9">
-        <v>28.7</v>
+      <c r="C48" s="10">
+        <v>36</v>
       </c>
       <c r="D48" s="3">
-        <v>1204.745823</v>
+        <v>1124.6469890000001</v>
       </c>
       <c r="E48" s="2">
-        <v>2.0328654849999999</v>
+        <v>2.1508123960000001</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C49" s="9">
-        <v>23.9</v>
-      </c>
-      <c r="D49" s="1">
-        <v>269.46308490000001</v>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1236.767112</v>
       </c>
       <c r="E49" s="2">
-        <v>0.96821452600000002</v>
+        <v>2.1387956130000001</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B50" s="8">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C50" s="9">
-        <v>30.7</v>
-      </c>
-      <c r="D50" s="1">
-        <v>404.81425480000001</v>
+        <v>38.6</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1467.580672</v>
       </c>
       <c r="E50" s="2">
-        <v>1.2807493270000001</v>
+        <v>3.2302490509999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B51" s="8">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C51" s="9">
-        <v>43.1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>681.44758060000004</v>
+        <v>42.3</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1463.5919289999999</v>
       </c>
       <c r="E51" s="5">
-        <v>2.0076370400000001</v>
+        <v>3.1018375900000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B52" s="8">
         <v>2016</v>
       </c>
       <c r="C52" s="9">
-        <v>41.1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>444.2099394</v>
+        <v>43.2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1637.6523549999999</v>
       </c>
       <c r="E52" s="2">
-        <v>1.1898566070000001</v>
+        <v>3.2473611170000001</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,250 +1463,254 @@
         <v>15</v>
       </c>
       <c r="B53" s="8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C53" s="9">
-        <v>43.2</v>
+        <v>43.7</v>
       </c>
       <c r="D53" s="3">
-        <v>1637.6523549999999</v>
+        <v>1777.4863109999999</v>
       </c>
       <c r="E53" s="2">
-        <v>3.2473611170000001</v>
+        <v>3.3210612579999998</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B54" s="8">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C54" s="9">
-        <v>41.2</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+        <v>24.5</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1059.227034</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1.610532329</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B55" s="8">
-        <v>2016</v>
-      </c>
-      <c r="C55" s="9">
-        <v>42.3</v>
+        <v>2014</v>
+      </c>
+      <c r="C55" s="10">
+        <v>27</v>
       </c>
       <c r="D55" s="3">
-        <v>1022.3659259999999</v>
+        <v>1130.1513990000001</v>
       </c>
       <c r="E55" s="2">
-        <v>2.311445435</v>
+        <v>1.703691217</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B56" s="8">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C56" s="9">
-        <v>40.6</v>
+        <v>28.7</v>
       </c>
       <c r="D56" s="3">
-        <v>1502.4741140000001</v>
+        <v>1204.745823</v>
       </c>
       <c r="E56" s="2">
-        <v>2.8601752239999998</v>
+        <v>2.0328654849999999</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B57" s="8">
         <v>2018</v>
       </c>
       <c r="C57" s="9">
-        <v>24.3</v>
-      </c>
-      <c r="D57" s="1">
-        <v>781.60415990000001</v>
+        <v>30.9</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1429.5189600000001</v>
       </c>
       <c r="E57" s="2">
-        <v>1.8990624330000001</v>
+        <v>2.034823201</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B58" s="8">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C58" s="9">
-        <v>29.1</v>
+        <v>18.5</v>
       </c>
       <c r="D58" s="1">
-        <v>514.48461529999997</v>
+        <v>207.37132070000001</v>
       </c>
       <c r="E58" s="2">
-        <v>1.4099858249999999</v>
+        <v>0.88997041700000001</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B59" s="8">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C59" s="9">
-        <v>39.1</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1366.979417</v>
-      </c>
-      <c r="E59" s="2">
-        <v>2.7574937249999998</v>
+        <v>21.7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>237.74423970000001</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.95076187000000001</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B60" s="8">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C60" s="9">
-        <v>46.9</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1017.864942</v>
+        <v>23.9</v>
+      </c>
+      <c r="D60" s="1">
+        <v>269.46308490000001</v>
       </c>
       <c r="E60" s="2">
-        <v>2.1966601020000001</v>
+        <v>0.96821452600000002</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B61" s="8">
         <v>2018</v>
       </c>
-      <c r="C61" s="9">
-        <v>37.299999999999997</v>
+      <c r="C61" s="10">
+        <v>25</v>
       </c>
       <c r="D61" s="3">
-        <v>1716.645178</v>
+        <v>381.87796200000003</v>
       </c>
       <c r="E61" s="2">
-        <v>3.110105484</v>
+        <v>1.206100129</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B62" s="8">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C62" s="9">
-        <v>36.9</v>
-      </c>
-      <c r="D62" s="1">
-        <v>481.10587370000002</v>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D62" s="3">
+        <v>412.03006800000003</v>
       </c>
       <c r="E62" s="2">
-        <v>1.5077594759999999</v>
+        <v>1.298763927</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B63" s="8">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C63" s="9">
-        <v>41.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="D63" s="1">
-        <v>990.06749509999997</v>
+        <v>416.66485729999999</v>
       </c>
       <c r="E63" s="2">
-        <v>1.167197466</v>
+        <v>1.241589877</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B64" s="8">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C64" s="9">
-        <v>25.1</v>
+        <v>41.1</v>
       </c>
       <c r="D64" s="1">
-        <v>340.71094060000001</v>
+        <v>444.2099394</v>
       </c>
       <c r="E64" s="2">
-        <v>0.93662283599999996</v>
+        <v>1.1898566070000001</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B65" s="8">
         <v>2018</v>
       </c>
       <c r="C65" s="9">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1236.767112</v>
+        <v>43.2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>506.24664430000001</v>
       </c>
       <c r="E65" s="2">
-        <v>2.1387956130000001</v>
+        <v>1.241507519</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B66" s="8">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C66" s="9">
-        <v>30.9</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1429.5189600000001</v>
+        <v>26.4</v>
+      </c>
+      <c r="D66" s="3">
+        <v>364.47778899999997</v>
       </c>
       <c r="E66" s="2">
-        <v>2.034823201</v>
+        <v>1.3786059930000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C67" s="10">
-        <v>25</v>
-      </c>
-      <c r="D67" s="3">
-        <v>381.87796200000003</v>
+        <v>2014</v>
+      </c>
+      <c r="C67" s="9">
+        <v>28.6</v>
+      </c>
+      <c r="D67" s="4">
+        <v>370.75196999999997</v>
       </c>
       <c r="E67" s="2">
-        <v>1.206100129</v>
+        <v>1.2899169539999999</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1690,85 +1718,89 @@
         <v>12</v>
       </c>
       <c r="B68" s="8">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C68" s="9">
-        <v>32.5</v>
+        <v>30.7</v>
       </c>
       <c r="D68" s="1">
-        <v>471.38087209999998</v>
+        <v>404.81425480000001</v>
       </c>
       <c r="E68" s="2">
-        <v>1.349554852</v>
+        <v>1.2807493270000001</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69" s="8">
         <v>2018</v>
       </c>
       <c r="C69" s="9">
-        <v>44.5</v>
+        <v>32.5</v>
       </c>
       <c r="D69" s="1">
-        <v>759.07605569999998</v>
+        <v>471.38087209999998</v>
       </c>
       <c r="E69" s="2">
-        <v>1.9459348729999999</v>
+        <v>1.349554852</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B70" s="8">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C70" s="9">
-        <v>43.2</v>
+        <v>38.6</v>
       </c>
       <c r="D70" s="1">
-        <v>506.24664430000001</v>
-      </c>
-      <c r="E70" s="2">
-        <v>1.241507519</v>
+        <v>604.19373389999998</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1.57631063</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B71" s="8">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C71" s="9">
-        <v>43.7</v>
-      </c>
-      <c r="D71" s="3">
-        <v>1777.4863109999999</v>
+        <v>40.6</v>
+      </c>
+      <c r="D71" s="1">
+        <v>934.97723289999999</v>
       </c>
       <c r="E71" s="2">
-        <v>3.3210612579999998</v>
+        <v>2.2644990649999999</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B72" s="8">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C72" s="9">
-        <v>43.7</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+        <v>42.3</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1022.3659259999999</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2.311445435</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B73" s="8">
         <v>2018</v>
@@ -1784,39 +1816,43 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
+    <sortCondition ref="A1:A73"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D9" location="'Flags &amp; footnotes'!D15" display="'Flags &amp; footnotes'!D15" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D11" location="'Flags &amp; footnotes'!D17" display="'Flags &amp; footnotes'!D17" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D17" location="'Flags &amp; footnotes'!D23" display="'Flags &amp; footnotes'!D23" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D19" location="'Flags &amp; footnotes'!D25" display="'Flags &amp; footnotes'!D25" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D24" location="'Flags &amp; footnotes'!F12" display="'Flags &amp; footnotes'!F12" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D27" location="'Flags &amp; footnotes'!F15" display="'Flags &amp; footnotes'!F15" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D35" location="'Flags &amp; footnotes'!F23" display="'Flags &amp; footnotes'!F23" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D37" location="'Flags &amp; footnotes'!F25" display="'Flags &amp; footnotes'!F25" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D45" location="'Flags &amp; footnotes'!H15" display="'Flags &amp; footnotes'!H15" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D53" location="'Flags &amp; footnotes'!H23" display="'Flags &amp; footnotes'!H23" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D55" location="'Flags &amp; footnotes'!H25" display="'Flags &amp; footnotes'!H25" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D62" location="'Flags &amp; footnotes'!J14" display="'Flags &amp; footnotes'!J14" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D63" location="'Flags &amp; footnotes'!J15" display="'Flags &amp; footnotes'!J15" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D71" location="'Flags &amp; footnotes'!J23" display="'Flags &amp; footnotes'!J23" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D42" location="'Flags &amp; footnotes'!D15" display="'Flags &amp; footnotes'!D15" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D46" location="'Flags &amp; footnotes'!D17" display="'Flags &amp; footnotes'!D17" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D50" location="'Flags &amp; footnotes'!D23" display="'Flags &amp; footnotes'!D23" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D70" location="'Flags &amp; footnotes'!D25" display="'Flags &amp; footnotes'!D25" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D39" location="'Flags &amp; footnotes'!F12" display="'Flags &amp; footnotes'!F12" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D43" location="'Flags &amp; footnotes'!F15" display="'Flags &amp; footnotes'!F15" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D51" location="'Flags &amp; footnotes'!F23" display="'Flags &amp; footnotes'!F23" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D71" location="'Flags &amp; footnotes'!F25" display="'Flags &amp; footnotes'!F25" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D44" location="'Flags &amp; footnotes'!H15" display="'Flags &amp; footnotes'!H15" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D52" location="'Flags &amp; footnotes'!H23" display="'Flags &amp; footnotes'!H23" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D72" location="'Flags &amp; footnotes'!H25" display="'Flags &amp; footnotes'!H25" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D33" location="'Flags &amp; footnotes'!J14" display="'Flags &amp; footnotes'!J14" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D45" location="'Flags &amp; footnotes'!J15" display="'Flags &amp; footnotes'!J15" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D53" location="'Flags &amp; footnotes'!J23" display="'Flags &amp; footnotes'!J23" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="D73" location="'Flags &amp; footnotes'!J25" display="'Flags &amp; footnotes'!J25" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E9" location="'Flags &amp; footnotes'!D35" display="'Flags &amp; footnotes'!D35" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E11" location="'Flags &amp; footnotes'!D37" display="'Flags &amp; footnotes'!D37" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E17" location="'Flags &amp; footnotes'!D43" display="'Flags &amp; footnotes'!D43" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E19" location="'Flags &amp; footnotes'!D45" display="'Flags &amp; footnotes'!D45" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E24" location="'Flags &amp; footnotes'!F32" display="'Flags &amp; footnotes'!F32" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E27" location="'Flags &amp; footnotes'!F35" display="'Flags &amp; footnotes'!F35" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E35" location="'Flags &amp; footnotes'!F43" display="'Flags &amp; footnotes'!F43" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E37" location="'Flags &amp; footnotes'!F45" display="'Flags &amp; footnotes'!F45" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E45" location="'Flags &amp; footnotes'!H35" display="'Flags &amp; footnotes'!H35" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E53" location="'Flags &amp; footnotes'!H43" display="'Flags &amp; footnotes'!H43" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E55" location="'Flags &amp; footnotes'!H45" display="'Flags &amp; footnotes'!H45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E62" location="'Flags &amp; footnotes'!J34" display="'Flags &amp; footnotes'!J34" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E63" location="'Flags &amp; footnotes'!J35" display="'Flags &amp; footnotes'!J35" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E71" location="'Flags &amp; footnotes'!J43" display="'Flags &amp; footnotes'!J43" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E42" location="'Flags &amp; footnotes'!D35" display="'Flags &amp; footnotes'!D35" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E46" location="'Flags &amp; footnotes'!D37" display="'Flags &amp; footnotes'!D37" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E50" location="'Flags &amp; footnotes'!D43" display="'Flags &amp; footnotes'!D43" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E70" location="'Flags &amp; footnotes'!D45" display="'Flags &amp; footnotes'!D45" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E39" location="'Flags &amp; footnotes'!F32" display="'Flags &amp; footnotes'!F32" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E43" location="'Flags &amp; footnotes'!F35" display="'Flags &amp; footnotes'!F35" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E51" location="'Flags &amp; footnotes'!F43" display="'Flags &amp; footnotes'!F43" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E71" location="'Flags &amp; footnotes'!F45" display="'Flags &amp; footnotes'!F45" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E44" location="'Flags &amp; footnotes'!H35" display="'Flags &amp; footnotes'!H35" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E52" location="'Flags &amp; footnotes'!H43" display="'Flags &amp; footnotes'!H43" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E72" location="'Flags &amp; footnotes'!H45" display="'Flags &amp; footnotes'!H45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E33" location="'Flags &amp; footnotes'!J34" display="'Flags &amp; footnotes'!J34" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E45" location="'Flags &amp; footnotes'!J35" display="'Flags &amp; footnotes'!J35" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E53" location="'Flags &amp; footnotes'!J43" display="'Flags &amp; footnotes'!J43" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="E73" location="'Flags &amp; footnotes'!J45" display="'Flags &amp; footnotes'!J45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{00CE3597-FB8D-4530-B181-465D46B6BB4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>